--- a/Examples/Data/Articles/ReadingCSVMultipleEncodings/MultiEncoded.csv.out.xlsx
+++ b/Examples/Data/Articles/ReadingCSVMultipleEncodings/MultiEncoded.csv.out.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Evaluation Warning" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Evaluation Warning" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
@@ -30,7 +30,7 @@
     <t xml:space="preserve"> U N I C O D E</t>
   </si>
   <si>
-    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2014 Aspose Pty Ltd.</t>
+    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2016 Aspose Pty Ltd.</t>
   </si>
 </sst>
 </file>
@@ -40,6 +40,7 @@
   <fonts count="2">
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -499,12 +500,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75">
       <c r="A1" t="s">
@@ -536,12 +537,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" ht="23.25" customHeight="1">
       <c r="A5" s="1" t="s">
